--- a/ExtraClase/Modelado de Dominio/Modelo enriquesido/Datos simulados.xlsx
+++ b/ExtraClase/Modelado de Dominio/Modelo enriquesido/Datos simulados.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Federico\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Federico\U\Doo\RepositorioDOO\ExtraClase\Modelado de Dominio\Modelo enriquesido\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F551815-F7F9-4490-958E-42B6E7B38837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA63C6F-A848-4309-9016-9861E704D90B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3FB1C1AF-C937-424C-8B70-E29AA864A804}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="10" xr2:uid="{3FB1C1AF-C937-424C-8B70-E29AA864A804}"/>
   </bookViews>
   <sheets>
     <sheet name="Objeto de dominio" sheetId="2" r:id="rId1"/>
-    <sheet name="Detalle Ruta" sheetId="10" r:id="rId2"/>
-    <sheet name="Ruta" sheetId="7" r:id="rId3"/>
-    <sheet name="Conductor" sheetId="3" r:id="rId4"/>
-    <sheet name="Peticion Ruta" sheetId="8" r:id="rId5"/>
-    <sheet name="tipo de vehiculo" sheetId="9" r:id="rId6"/>
-    <sheet name="Ubicación" sheetId="1" r:id="rId7"/>
-    <sheet name="Cliente" sheetId="4" r:id="rId8"/>
-    <sheet name="Calificación" sheetId="5" r:id="rId9"/>
-    <sheet name="Vehiculo" sheetId="6" r:id="rId10"/>
+    <sheet name="Cliente" sheetId="4" r:id="rId2"/>
+    <sheet name="Conductor" sheetId="3" r:id="rId3"/>
+    <sheet name="Calificación" sheetId="5" r:id="rId4"/>
+    <sheet name="Vehiculo" sheetId="6" r:id="rId5"/>
+    <sheet name="Detalle Ruta" sheetId="10" r:id="rId6"/>
+    <sheet name="Ruta" sheetId="7" r:id="rId7"/>
+    <sheet name="Ubicación" sheetId="1" r:id="rId8"/>
+    <sheet name="tipo de vehiculo" sheetId="9" r:id="rId9"/>
+    <sheet name="Peticion Ruta" sheetId="8" r:id="rId10"/>
+    <sheet name="Coductor Vehiculo" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="100">
   <si>
     <t>Objeto de dominio</t>
   </si>
@@ -88,9 +89,6 @@
     <t>Ubicación</t>
   </si>
   <si>
-    <t>Objeto que representa cual será el lugar geografico de un cliente o un conductor al momento de registrar un servicio, como lo puede ser una ciudad, barrio o sesctor. Por ejemplo un cliente puede estar en la ciudad rionegro en el barrio villa Manuela.</t>
-  </si>
-  <si>
     <t>Tipo vehiculo</t>
   </si>
   <si>
@@ -142,9 +140,6 @@
     <t>juana@uco.edu.co</t>
   </si>
   <si>
-    <t>Contrseña</t>
-  </si>
-  <si>
     <t>Correo Entidad</t>
   </si>
   <si>
@@ -175,42 +170,24 @@
     <t xml:space="preserve">Comentario </t>
   </si>
   <si>
-    <t>Persona</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
     <t xml:space="preserve">Es muy grosero </t>
   </si>
   <si>
     <t xml:space="preserve">Federico </t>
   </si>
   <si>
-    <t xml:space="preserve">Placa </t>
-  </si>
-  <si>
     <t>Marca</t>
   </si>
   <si>
     <t>Linea</t>
   </si>
   <si>
-    <t>Capacidad</t>
-  </si>
-  <si>
     <t>Modelo</t>
   </si>
   <si>
-    <t>Color</t>
-  </si>
-  <si>
     <t>MNO530</t>
   </si>
   <si>
-    <t>Gris eclipse</t>
-  </si>
-  <si>
     <t>Renault</t>
   </si>
   <si>
@@ -250,9 +227,6 @@
     <t>e4e6577rgb</t>
   </si>
   <si>
-    <t>Active</t>
-  </si>
-  <si>
     <t>Tipo de Vehiculo</t>
   </si>
   <si>
@@ -271,9 +245,6 @@
     <t>Fecha</t>
   </si>
   <si>
-    <t>UCO-Porvenir</t>
-  </si>
-  <si>
     <t>Logan</t>
   </si>
   <si>
@@ -283,9 +254,6 @@
     <t>Cupos</t>
   </si>
   <si>
-    <t>Pasajeros</t>
-  </si>
-  <si>
     <t>23wfs</t>
   </si>
   <si>
@@ -293,13 +261,97 @@
   </si>
   <si>
     <t>Objeto que se encarga de almacenar la información que pertenece a una ruta, se generada a partir de la creación de un conductor, con la cual anuncia cual es el origen y cual es su destino, cuantos cupos tiene y otros datos como fecha y hora.</t>
+  </si>
+  <si>
+    <t>Dni</t>
+  </si>
+  <si>
+    <t>Conductor vehiculo</t>
+  </si>
+  <si>
+    <t>Clio-2010</t>
+  </si>
+  <si>
+    <t>Usuario</t>
+  </si>
+  <si>
+    <t>Identificador</t>
+  </si>
+  <si>
+    <t>e234-232f</t>
+  </si>
+  <si>
+    <t>Matricula</t>
+  </si>
+  <si>
+    <t>Jarod</t>
+  </si>
+  <si>
+    <t>234dfsd</t>
+  </si>
+  <si>
+    <t>Placa</t>
+  </si>
+  <si>
+    <t>Activado</t>
+  </si>
+  <si>
+    <t>Inicio ruta</t>
+  </si>
+  <si>
+    <t>Fin ruta</t>
+  </si>
+  <si>
+    <t>Provenir</t>
+  </si>
+  <si>
+    <t>Uco</t>
+  </si>
+  <si>
+    <t>HoraCreación</t>
+  </si>
+  <si>
+    <t>HoraFinalización</t>
+  </si>
+  <si>
+    <t>NombreUSuario</t>
+  </si>
+  <si>
+    <t>federico</t>
+  </si>
+  <si>
+    <t>Atributo que nos representa en que lugar se encuentra un usuario al momento de tomar una ruta y se genera un registro de la ubicación en tiempo real de la ubicación geografica del usuario.</t>
+  </si>
+  <si>
+    <t>Ruta confirmada</t>
+  </si>
+  <si>
+    <t>Rutas</t>
+  </si>
+  <si>
+    <t>En espera</t>
+  </si>
+  <si>
+    <t>Sin conductor</t>
+  </si>
+  <si>
+    <t>codigo</t>
+  </si>
+  <si>
+    <t>Nombre conductor</t>
+  </si>
+  <si>
+    <t>123d</t>
+  </si>
+  <si>
+    <t>Sin usar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,8 +383,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -375,8 +433,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -432,9 +496,7 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -443,16 +505,46 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -460,6 +552,81 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -469,7 +636,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -498,8 +665,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -511,39 +676,61 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="20" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -861,8 +1048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3C6EED-26A6-4A32-9400-4103C25EDF3D}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,39 +1112,39 @@
         <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -971,18 +1158,431 @@
     <hyperlink ref="A8" location="Ubicación!A1" display="Ubicación" xr:uid="{957E8B72-C572-471C-A512-FC2D661867EB}"/>
     <hyperlink ref="A9" location="'Tipo Vehiculo'!A1" display="Tipo vehiculo" xr:uid="{F8077BBD-4E6E-417B-B6B8-EACBDCFE5B21}"/>
     <hyperlink ref="A10" location="'Peticion ruta'!A1" display="Peticion ruta" xr:uid="{E60A4CB8-480B-4463-BFE5-15C71B2EE50A}"/>
-    <hyperlink ref="A11" location="'Conductor Vehiculo'!A1" display="Conductor Vehiculo" xr:uid="{168D3CCA-C061-439E-86DE-A51E02C812C3}"/>
+    <hyperlink ref="A11" location="'Coductor Vehiculo'!A1" display="Conductor Vehiculo" xr:uid="{168D3CCA-C061-439E-86DE-A51E02C812C3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B648B0-E735-49D2-9CD2-7AD28A34FBD9}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE51FD9-3A82-E749-8688-196D96D10B6C}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>67867</v>
+      </c>
+      <c r="B4" s="21">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:I2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Objeto de dominio'!A1" display="Volver a inicio" xr:uid="{92ADF4B4-2E59-FB48-B6B3-A7E9614BC0B4}"/>
+    <hyperlink ref="E3" location="Conductor!A11" display="Conductor!A11" xr:uid="{EF3889C2-B72D-2346-ADB7-9163254EB1F2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A596026E-0EDB-490F-832C-A3F37D6245AF}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:D2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Objeto de dominio'!A1" display="Volver a inicio" xr:uid="{EE93FEEE-A581-420A-8793-016364211E30}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA6EAF4-4E69-4136-9841-92939C37AE9C}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>234</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="11">
+        <v>12341900</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:F2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Objeto de dominio'!A1" display="Volver a inicio" xr:uid="{B7D0E4A6-6AB9-4222-85DE-8F5C8EAB3607}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B71A918-4F48-4BE7-A683-4BCD3B1173E3}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>123</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="11">
+        <v>19032838029</v>
+      </c>
+      <c r="F4" s="11">
+        <v>1234242</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:G2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Objeto de dominio'!A1" display="Volver a inicio" xr:uid="{748847A3-3FD3-41CA-888F-1C2F4E82BF16}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2AE89C0-E7CC-4181-97EE-C324EAEBD42F}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:D2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Objeto de dominio'!A1" display="Volver a inicio" xr:uid="{02863704-EACA-40D2-AF3F-FE8F31F5ED0B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B648B0-E735-49D2-9CD2-7AD28A34FBD9}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -994,57 +1594,71 @@
     <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="17" t="s">
+      <c r="D4" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="13">
+      <c r="E4" s="11">
         <v>2007</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A2:G2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objeto de dominio'!A1" display="Volver a inicio" xr:uid="{EA95A33C-E701-4372-BAB1-88F2CBA0F07B}"/>
@@ -1053,197 +1667,182 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BB001C2-15FA-4C41-ADAF-19535EA0F727}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E15:E16"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="13">
-        <v>4000</v>
-      </c>
-      <c r="E4" s="13">
+      <c r="B3" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="11">
         <v>3</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="H4" s="30">
-        <v>44806</v>
-      </c>
-      <c r="I4" s="29">
-        <v>0.5625</v>
+      <c r="D4" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A2:D2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objeto de dominio'!A1" display="Volver a inicio" xr:uid="{B7722B6C-CC9D-AB4C-BCF1-8894772E0B7D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="B4:C4" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45424989-1726-45C3-AF45-F3B6820D374F}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="16"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="J3" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" s="29">
+      <c r="G4" s="19">
         <v>0.54166666666666663</v>
       </c>
-      <c r="G4" s="30">
+      <c r="H4" s="19">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="I4" s="20">
         <v>44806</v>
       </c>
-      <c r="H4" s="13">
+      <c r="J4" s="11">
         <v>2</v>
+      </c>
+      <c r="K4" s="11">
+        <v>4000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A2:J2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objeto de dominio'!A1" display="Volver a inicio" xr:uid="{5B7C13FC-818A-4FB7-BE5D-58B667454080}"/>
@@ -1252,429 +1851,126 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B71A918-4F48-4BE7-A683-4BCD3B1173E3}">
-  <dimension ref="A1:E4"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E4AF330-8628-4EAA-A7F5-848BD5314080}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
-        <v>123</v>
+      <c r="C3" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>1</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="13">
-        <v>19032838029</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A2:D2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Objeto de dominio'!A1" display="Volver a inicio" xr:uid="{748847A3-3FD3-41CA-888F-1C2F4E82BF16}"/>
+    <hyperlink ref="A1" location="'Objeto de dominio'!A1" display="Volver a inicio" xr:uid="{CCBCABDC-6634-4D69-9A70-4729D6420F2E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B4:C4" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE51FD9-3A82-E749-8688-196D96D10B6C}">
-  <dimension ref="A1:L4"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9AF28A-E5A3-514E-9E9C-EA2976A2D6D2}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
-        <v>67867</v>
-      </c>
-      <c r="B4" s="31">
-        <v>0.99930555555555556</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:E2"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Objeto de dominio'!A1" display="Volver a inicio" xr:uid="{92ADF4B4-2E59-FB48-B6B3-A7E9614BC0B4}"/>
-    <hyperlink ref="E3" location="Conductor!A11" display="Conductor!A11" xr:uid="{EF3889C2-B72D-2346-ADB7-9163254EB1F2}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9AF28A-E5A3-514E-9E9C-EA2976A2D6D2}">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="37">
         <v>8769</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="13">
-        <v>4</v>
+      <c r="B4" s="38" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objeto de dominio'!A1" display="Volver a inicio" xr:uid="{B5741C13-FF5B-E240-90CB-B32C91E71063}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E4AF330-8628-4EAA-A7F5-848BD5314080}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>1</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:C2"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B3" location="Ubicacion!A11" display="Ubicacion!A11" xr:uid="{347ECD3B-2CC0-4822-B8C4-C79EB1F46413}"/>
-    <hyperlink ref="C3" location="Ubicacion!A12" display="Ubicacion!A12" xr:uid="{017E538D-D163-48FC-B5C8-0B2E5E21455C}"/>
-    <hyperlink ref="A1" location="'Objeto de dominio'!A1" display="Volver a inicio" xr:uid="{CCBCABDC-6634-4D69-9A70-4729D6420F2E}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA6EAF4-4E69-4136-9841-92939C37AE9C}">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
-        <v>234</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:E2"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Objeto de dominio'!A1" display="Volver a inicio" xr:uid="{B7D0E4A6-6AB9-4222-85DE-8F5C8EAB3607}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2AE89C0-E7CC-4181-97EE-C324EAEBD42F}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
-        <v>2</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:D2"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Objeto de dominio'!A1" display="Volver a inicio" xr:uid="{02863704-EACA-40D2-AF3F-FE8F31F5ED0B}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/ExtraClase/Modelado de Dominio/Modelo enriquesido/Datos simulados.xlsx
+++ b/ExtraClase/Modelado de Dominio/Modelo enriquesido/Datos simulados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Federico\U\Doo\RepositorioDOO\ExtraClase\Modelado de Dominio\Modelo enriquesido\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA63C6F-A848-4309-9016-9861E704D90B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19DBF16-8AB9-4788-A6A8-C79C31506B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="10" xr2:uid="{3FB1C1AF-C937-424C-8B70-E29AA864A804}"/>
+    <workbookView minimized="1" xWindow="2730" yWindow="2595" windowWidth="15375" windowHeight="8325" firstSheet="5" activeTab="10" xr2:uid="{3FB1C1AF-C937-424C-8B70-E29AA864A804}"/>
   </bookViews>
   <sheets>
     <sheet name="Objeto de dominio" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="103">
   <si>
     <t>Objeto de dominio</t>
   </si>
@@ -149,12 +149,6 @@
     <t>Federico</t>
   </si>
   <si>
-    <t>ewfs</t>
-  </si>
-  <si>
-    <t>fede@uco.edu.co</t>
-  </si>
-  <si>
     <t>Contraseña</t>
   </si>
   <si>
@@ -345,6 +339,21 @@
   </si>
   <si>
     <t>Sin usar</t>
+  </si>
+  <si>
+    <t>David Andrés Valencia</t>
+  </si>
+  <si>
+    <t>Ag12382_</t>
+  </si>
+  <si>
+    <t>david.valencia6432@uco.edu.co</t>
+  </si>
+  <si>
+    <t>DD231K92JS6287SHAN370382SH1829394381</t>
+  </si>
+  <si>
+    <t>DF256F92JS6287SHJS370382SP9825394381</t>
   </si>
 </sst>
 </file>
@@ -636,7 +645,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -682,55 +691,56 @@
     <xf numFmtId="14" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1048,9 +1058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3C6EED-26A6-4A32-9400-4103C25EDF3D}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1112,7 +1120,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -1120,7 +1128,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -1156,7 +1164,7 @@
     <hyperlink ref="A3" location="Conductor!A2" display="Conductor" xr:uid="{F6604A19-6EB3-4768-9934-7839331372B4}"/>
     <hyperlink ref="A7" location="Ruta!A1" display="Ruta" xr:uid="{5CC14CB7-879C-4E4D-9A6F-483A5D64202B}"/>
     <hyperlink ref="A8" location="Ubicación!A1" display="Ubicación" xr:uid="{957E8B72-C572-471C-A512-FC2D661867EB}"/>
-    <hyperlink ref="A9" location="'Tipo Vehiculo'!A1" display="Tipo vehiculo" xr:uid="{F8077BBD-4E6E-417B-B6B8-EACBDCFE5B21}"/>
+    <hyperlink ref="A9" location="'tipo de vehiculo'!A1" display="Tipo vehiculo" xr:uid="{F8077BBD-4E6E-417B-B6B8-EACBDCFE5B21}"/>
     <hyperlink ref="A10" location="'Peticion ruta'!A1" display="Peticion ruta" xr:uid="{E60A4CB8-480B-4463-BFE5-15C71B2EE50A}"/>
     <hyperlink ref="A11" location="'Coductor Vehiculo'!A1" display="Conductor Vehiculo" xr:uid="{168D3CCA-C061-439E-86DE-A51E02C812C3}"/>
   </hyperlinks>
@@ -1184,17 +1192,17 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
+      <c r="A2" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
     </row>
@@ -1203,25 +1211,25 @@
         <v>22</v>
       </c>
       <c r="B3" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="E3" s="14" t="s">
         <v>51</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>53</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>4</v>
@@ -1235,25 +1243,25 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>56</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>33</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H4" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1272,9 +1280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A596026E-0EDB-490F-832C-A3F37D6245AF}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1288,39 +1294,39 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="45"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B4" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="28" t="s">
         <v>97</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1339,16 +1345,16 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1357,14 +1363,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -1374,36 +1380,36 @@
         <v>23</v>
       </c>
       <c r="C3" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>38</v>
-      </c>
       <c r="E3" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
-        <v>234</v>
+      <c r="A4" s="11" t="s">
+        <v>101</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>35</v>
+      <c r="E4" s="46" t="s">
+        <v>100</v>
       </c>
       <c r="F4" s="11">
-        <v>12341900</v>
+        <v>1000896432</v>
       </c>
     </row>
   </sheetData>
@@ -1412,6 +1418,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objeto de dominio'!A1" display="Volver a inicio" xr:uid="{B7D0E4A6-6AB9-4222-85DE-8F5C8EAB3607}"/>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{A0338B58-6C16-422D-A919-5EE15F7680CE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1422,13 +1429,13 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" customWidth="1"/>
@@ -1441,15 +1448,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -1459,24 +1466,24 @@
         <v>23</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>31</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
-        <v>123</v>
+      <c r="A4" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>28</v>
@@ -1494,7 +1501,7 @@
         <v>1234242</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1513,9 +1520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2AE89C0-E7CC-4181-97EE-C324EAEBD42F}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1531,25 +1536,25 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1560,10 +1565,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1581,9 +1586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B648B0-E735-49D2-9CD2-7AD28A34FBD9}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1600,60 +1603,60 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>78</v>
-      </c>
       <c r="C3" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>43</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>45</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E4" s="11">
         <v>2007</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1671,9 +1674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BB001C2-15FA-4C41-ADAF-19535EA0F727}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1683,12 +1684,12 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
@@ -1698,7 +1699,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D3" s="22" t="s">
         <v>12</v>
@@ -1706,7 +1707,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>13</v>
@@ -1733,9 +1734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45424989-1726-45C3-AF45-F3B6820D374F}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1756,73 +1755,73 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
       <c r="K2" s="16"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I3" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="15" t="s">
         <v>65</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>33</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G4" s="19">
         <v>0.54166666666666663</v>
@@ -1871,15 +1870,15 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="23" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -1888,8 +1887,8 @@
       <c r="C3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="32" t="s">
-        <v>89</v>
+      <c r="D3" s="24" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1903,7 +1902,7 @@
         <v>27</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1925,9 +1924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9AF28A-E5A3-514E-9E9C-EA2976A2D6D2}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1941,27 +1938,27 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="34"/>
+      <c r="A2" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="42"/>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="27">
+        <v>8769</v>
+      </c>
+      <c r="B4" s="28" t="s">
         <v>61</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="37">
-        <v>8769</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/ExtraClase/Modelado de Dominio/Modelo enriquesido/Datos simulados.xlsx
+++ b/ExtraClase/Modelado de Dominio/Modelo enriquesido/Datos simulados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Federico\U\Doo\RepositorioDOO\ExtraClase\Modelado de Dominio\Modelo enriquesido\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19DBF16-8AB9-4788-A6A8-C79C31506B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D70B0D-17EE-47F3-8274-3A3281DDE5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2730" yWindow="2595" windowWidth="15375" windowHeight="8325" firstSheet="5" activeTab="10" xr2:uid="{3FB1C1AF-C937-424C-8B70-E29AA864A804}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="6" xr2:uid="{3FB1C1AF-C937-424C-8B70-E29AA864A804}"/>
   </bookViews>
   <sheets>
     <sheet name="Objeto de dominio" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="102">
   <si>
     <t>Objeto de dominio</t>
   </si>
@@ -240,9 +240,6 @@
   </si>
   <si>
     <t>Logan</t>
-  </si>
-  <si>
-    <t>Precio</t>
   </si>
   <si>
     <t>Cupos</t>
@@ -645,7 +642,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -682,9 +679,6 @@
     <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="20" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -701,6 +695,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -740,7 +735,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1120,7 +1114,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -1128,7 +1122,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -1193,7 +1187,7 @@
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
@@ -1203,8 +1197,8 @@
       <c r="G2" s="40"/>
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -1226,10 +1220,10 @@
         <v>32</v>
       </c>
       <c r="G3" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="14" t="s">
         <v>90</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>91</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>4</v>
@@ -1239,7 +1233,7 @@
       <c r="A4" s="11">
         <v>67867</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="20">
         <v>0.99930555555555556</v>
       </c>
       <c r="C4" s="11" t="s">
@@ -1255,13 +1249,13 @@
         <v>33</v>
       </c>
       <c r="G4" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>92</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1280,7 +1274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A596026E-0EDB-490F-832C-A3F37D6245AF}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1302,31 +1296,31 @@
       <c r="D2" s="45"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="C3" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="B4" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="27" t="s">
         <v>96</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1389,24 +1383,24 @@
         <v>35</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>98</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>99</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="46" t="s">
-        <v>100</v>
+      <c r="E4" s="32" t="s">
+        <v>99</v>
       </c>
       <c r="F4" s="11">
         <v>1000896432</v>
@@ -1475,15 +1469,15 @@
         <v>47</v>
       </c>
       <c r="F3" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>70</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>28</v>
@@ -1501,7 +1495,7 @@
         <v>1234242</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1554,7 +1548,7 @@
         <v>38</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1615,10 +1609,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>41</v>
@@ -1633,15 +1627,15 @@
         <v>4</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>45</v>
@@ -1653,7 +1647,7 @@
         <v>2007</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>44</v>
@@ -1692,22 +1686,22 @@
       <c r="D2" s="39"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="22" t="s">
+      <c r="C3" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>13</v>
@@ -1732,9 +1726,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45424989-1726-45C3-AF45-F3B6820D374F}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1749,12 +1745,12 @@
     <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>12</v>
       </c>
@@ -1767,9 +1763,8 @@
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
       <c r="J2" s="35"/>
-      <c r="K2" s="16"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>55</v>
       </c>
@@ -1777,10 +1772,10 @@
         <v>56</v>
       </c>
       <c r="C3" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>81</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>82</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>62</v>
@@ -1789,33 +1784,30 @@
         <v>8</v>
       </c>
       <c r="G3" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="15" t="s">
         <v>85</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>86</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>63</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="K3" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>57</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>33</v>
@@ -1823,20 +1815,17 @@
       <c r="F4" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="18">
         <v>0.54166666666666663</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="18">
         <v>0.58333333333333337</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="19">
         <v>44806</v>
       </c>
       <c r="J4" s="11">
         <v>2</v>
-      </c>
-      <c r="K4" s="11">
-        <v>4000</v>
       </c>
     </row>
   </sheetData>
@@ -1878,7 +1867,7 @@
       <c r="D2" s="40"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="22" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -1887,8 +1876,8 @@
       <c r="C3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="24" t="s">
-        <v>87</v>
+      <c r="D3" s="23" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1902,7 +1891,7 @@
         <v>27</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1942,22 +1931,22 @@
         <v>58</v>
       </c>
       <c r="B2" s="42"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27">
+      <c r="A4" s="26">
         <v>8769</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="27" t="s">
         <v>61</v>
       </c>
     </row>

--- a/ExtraClase/Modelado de Dominio/Modelo enriquesido/Datos simulados.xlsx
+++ b/ExtraClase/Modelado de Dominio/Modelo enriquesido/Datos simulados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Federico\U\Doo\RepositorioDOO\ExtraClase\Modelado de Dominio\Modelo enriquesido\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D70B0D-17EE-47F3-8274-3A3281DDE5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4FD050-DD06-4376-A2D7-7A5B64B006F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="6" xr2:uid="{3FB1C1AF-C937-424C-8B70-E29AA864A804}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="9" xr2:uid="{3FB1C1AF-C937-424C-8B70-E29AA864A804}"/>
   </bookViews>
   <sheets>
     <sheet name="Objeto de dominio" sheetId="2" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="Conductor" sheetId="3" r:id="rId3"/>
     <sheet name="Calificación" sheetId="5" r:id="rId4"/>
     <sheet name="Vehiculo" sheetId="6" r:id="rId5"/>
-    <sheet name="Detalle Ruta" sheetId="10" r:id="rId6"/>
-    <sheet name="Ruta" sheetId="7" r:id="rId7"/>
+    <sheet name="Ruta" sheetId="7" r:id="rId6"/>
+    <sheet name="Detalle Ruta" sheetId="10" r:id="rId7"/>
     <sheet name="Ubicación" sheetId="1" r:id="rId8"/>
     <sheet name="tipo de vehiculo" sheetId="9" r:id="rId9"/>
     <sheet name="Peticion Ruta" sheetId="8" r:id="rId10"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="112">
   <si>
     <t>Objeto de dominio</t>
   </si>
@@ -191,12 +191,6 @@
     <t>N.licencia</t>
   </si>
   <si>
-    <t>Hora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fecha </t>
-  </si>
-  <si>
     <t>Origen</t>
   </si>
   <si>
@@ -233,9 +227,6 @@
     <t>Carro</t>
   </si>
   <si>
-    <t xml:space="preserve">Conductor </t>
-  </si>
-  <si>
     <t>Fecha</t>
   </si>
   <si>
@@ -284,9 +275,6 @@
     <t>Placa</t>
   </si>
   <si>
-    <t>Activado</t>
-  </si>
-  <si>
     <t>Inicio ruta</t>
   </si>
   <si>
@@ -314,18 +302,6 @@
     <t>Atributo que nos representa en que lugar se encuentra un usuario al momento de tomar una ruta y se genera un registro de la ubicación en tiempo real de la ubicación geografica del usuario.</t>
   </si>
   <si>
-    <t>Ruta confirmada</t>
-  </si>
-  <si>
-    <t>Rutas</t>
-  </si>
-  <si>
-    <t>En espera</t>
-  </si>
-  <si>
-    <t>Sin conductor</t>
-  </si>
-  <si>
     <t>codigo</t>
   </si>
   <si>
@@ -351,13 +327,67 @@
   </si>
   <si>
     <t>DF256F92JS6287SHJS370382SP9825394381</t>
+  </si>
+  <si>
+    <t>Detalle ruta</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>sdaf234</t>
+  </si>
+  <si>
+    <t>Activo</t>
+  </si>
+  <si>
+    <t>Hora solicitud servicio</t>
+  </si>
+  <si>
+    <t>Fecha solicitud servicio</t>
+  </si>
+  <si>
+    <t>Cliente solicitante</t>
+  </si>
+  <si>
+    <t>Ruta Peticion</t>
+  </si>
+  <si>
+    <t>parque</t>
+  </si>
+  <si>
+    <t>puntos ruta</t>
+  </si>
+  <si>
+    <t>Puntos ruta</t>
+  </si>
+  <si>
+    <t>puntos clave</t>
+  </si>
+  <si>
+    <t>codigo ruta</t>
+  </si>
+  <si>
+    <t>san nicolas, autolarte</t>
+  </si>
+  <si>
+    <t>sgwgwg21</t>
+  </si>
+  <si>
+    <t>codigo Peticion ruta</t>
+  </si>
+  <si>
+    <t>aceptan las peticiones</t>
+  </si>
+  <si>
+    <t>muestran las peticiones</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -395,8 +425,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -445,8 +483,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -637,12 +681,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -735,6 +816,28 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1114,7 +1217,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -1122,7 +1225,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -1168,105 +1271,224 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE51FD9-3A82-E749-8688-196D96D10B6C}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:F16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
       <c r="E2" s="40"/>
       <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="E3" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>51</v>
-      </c>
       <c r="F3" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>67867</v>
       </c>
       <c r="B4" s="20">
-        <v>0.99930555555555556</v>
+        <v>0.87430555555555556</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>54</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>92</v>
-      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="54" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>67867</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="55" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="47"/>
+      <c r="F11" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="51" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="49"/>
+      <c r="F12" s="11">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:I2"/>
+  <mergeCells count="6">
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objeto de dominio'!A1" display="Volver a inicio" xr:uid="{92ADF4B4-2E59-FB48-B6B3-A7E9614BC0B4}"/>
     <hyperlink ref="E3" location="Conductor!A11" display="Conductor!A11" xr:uid="{EF3889C2-B72D-2346-ADB7-9163254EB1F2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1297,30 +1519,30 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1605,24 @@
         <v>35</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F4" s="11">
         <v>1000896432</v>
@@ -1423,7 +1645,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1469,15 +1691,15 @@
         <v>47</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>28</v>
@@ -1495,7 +1717,7 @@
         <v>1234242</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1548,7 +1770,7 @@
         <v>38</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1609,10 +1831,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>41</v>
@@ -1627,15 +1849,15 @@
         <v>4</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>74</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>77</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>45</v>
@@ -1647,7 +1869,7 @@
         <v>2007</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>44</v>
@@ -1665,10 +1887,137 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45424989-1726-45C3-AF45-F3B6820D374F}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="47"/>
+      <c r="F3" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="49"/>
+      <c r="F4" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="18">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D9" s="18">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E9" s="19">
+        <v>44806</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A7:E7"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Objeto de dominio'!A1" display="Volver a inicio" xr:uid="{5B7C13FC-818A-4FB7-BE5D-58B667454080}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BB001C2-15FA-4C41-ADAF-19535EA0F727}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1693,7 +2042,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>12</v>
@@ -1701,7 +2050,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>13</v>
@@ -1719,121 +2068,6 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objeto de dominio'!A1" display="Volver a inicio" xr:uid="{B7722B6C-CC9D-AB4C-BCF1-8894772E0B7D}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45424989-1726-45C3-AF45-F3B6820D374F}">
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="18">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="H4" s="18">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="I4" s="19">
-        <v>44806</v>
-      </c>
-      <c r="J4" s="11">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:J2"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Objeto de dominio'!A1" display="Volver a inicio" xr:uid="{5B7C13FC-818A-4FB7-BE5D-58B667454080}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1877,7 +2111,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1891,7 +2125,7 @@
         <v>27</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1928,7 +2162,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" s="42"/>
       <c r="C2" s="17"/>
@@ -1936,10 +2170,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1947,7 +2181,7 @@
         <v>8769</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/ExtraClase/Modelado de Dominio/Modelo enriquesido/Datos simulados.xlsx
+++ b/ExtraClase/Modelado de Dominio/Modelo enriquesido/Datos simulados.xlsx
@@ -5,23 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Federico\U\Doo\RepositorioDOO\ExtraClase\Modelado de Dominio\Modelo enriquesido\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Federico\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4FD050-DD06-4376-A2D7-7A5B64B006F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD046EA-D13B-4E7B-9BF4-4006A1F99DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="9" xr2:uid="{3FB1C1AF-C937-424C-8B70-E29AA864A804}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="10" xr2:uid="{3FB1C1AF-C937-424C-8B70-E29AA864A804}"/>
   </bookViews>
   <sheets>
     <sheet name="Objeto de dominio" sheetId="2" r:id="rId1"/>
     <sheet name="Cliente" sheetId="4" r:id="rId2"/>
     <sheet name="Conductor" sheetId="3" r:id="rId3"/>
-    <sheet name="Calificación" sheetId="5" r:id="rId4"/>
-    <sheet name="Vehiculo" sheetId="6" r:id="rId5"/>
-    <sheet name="Ruta" sheetId="7" r:id="rId6"/>
+    <sheet name="Categorias" sheetId="12" r:id="rId4"/>
+    <sheet name="Calificación" sheetId="5" r:id="rId5"/>
+    <sheet name="Vehiculo" sheetId="6" r:id="rId6"/>
     <sheet name="Detalle Ruta" sheetId="10" r:id="rId7"/>
-    <sheet name="Ubicación" sheetId="1" r:id="rId8"/>
-    <sheet name="tipo de vehiculo" sheetId="9" r:id="rId9"/>
+    <sheet name="punto interes" sheetId="13" r:id="rId8"/>
+    <sheet name="Ruta" sheetId="7" r:id="rId9"/>
     <sheet name="Peticion Ruta" sheetId="8" r:id="rId10"/>
     <sheet name="Coductor Vehiculo" sheetId="11" r:id="rId11"/>
   </sheets>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="104">
   <si>
     <t>Objeto de dominio</t>
   </si>
@@ -107,9 +107,6 @@
     <t>Objeto que tiene la funcion de especificar quien es el conductor de que vehiculo, facilitando a los clientes para tomar la decisión de que ruta y vehiculo usar.</t>
   </si>
   <si>
-    <t>Villa Manuela</t>
-  </si>
-  <si>
     <t>Volver a inicio</t>
   </si>
   <si>
@@ -119,18 +116,6 @@
     <t>Nombre</t>
   </si>
   <si>
-    <t>Longitud</t>
-  </si>
-  <si>
-    <t>Latitud</t>
-  </si>
-  <si>
-    <t>6.1460087</t>
-  </si>
-  <si>
-    <t>-75.382055</t>
-  </si>
-  <si>
     <t>Juana</t>
   </si>
   <si>
@@ -155,9 +140,6 @@
     <t>Correo entidad</t>
   </si>
   <si>
-    <t>Punto de referencia</t>
-  </si>
-  <si>
     <t>calificacion</t>
   </si>
   <si>
@@ -191,21 +173,9 @@
     <t>N.licencia</t>
   </si>
   <si>
-    <t>Origen</t>
-  </si>
-  <si>
-    <t>Destino</t>
-  </si>
-  <si>
     <t>2022-08-52</t>
   </si>
   <si>
-    <t xml:space="preserve">Reserva plaza </t>
-  </si>
-  <si>
-    <t>UCO</t>
-  </si>
-  <si>
     <t xml:space="preserve">Codigo </t>
   </si>
   <si>
@@ -215,30 +185,12 @@
     <t>e4e6577rgb</t>
   </si>
   <si>
-    <t>Tipo de Vehiculo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">codigo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">tipo de vehiculo </t>
-  </si>
-  <si>
-    <t>Carro</t>
-  </si>
-  <si>
     <t>Fecha</t>
   </si>
   <si>
-    <t>Logan</t>
-  </si>
-  <si>
     <t>Cupos</t>
   </si>
   <si>
-    <t>23wfs</t>
-  </si>
-  <si>
     <t>Peticion Ruta</t>
   </si>
   <si>
@@ -248,12 +200,6 @@
     <t>Dni</t>
   </si>
   <si>
-    <t>Conductor vehiculo</t>
-  </si>
-  <si>
-    <t>Clio-2010</t>
-  </si>
-  <si>
     <t>Usuario</t>
   </si>
   <si>
@@ -263,27 +209,12 @@
     <t>e234-232f</t>
   </si>
   <si>
-    <t>Matricula</t>
-  </si>
-  <si>
-    <t>Jarod</t>
-  </si>
-  <si>
     <t>234dfsd</t>
   </si>
   <si>
     <t>Placa</t>
   </si>
   <si>
-    <t>Inicio ruta</t>
-  </si>
-  <si>
-    <t>Fin ruta</t>
-  </si>
-  <si>
-    <t>Provenir</t>
-  </si>
-  <si>
     <t>Uco</t>
   </si>
   <si>
@@ -293,12 +224,6 @@
     <t>HoraFinalización</t>
   </si>
   <si>
-    <t>NombreUSuario</t>
-  </si>
-  <si>
-    <t>federico</t>
-  </si>
-  <si>
     <t>Atributo que nos representa en que lugar se encuentra un usuario al momento de tomar una ruta y se genera un registro de la ubicación en tiempo real de la ubicación geografica del usuario.</t>
   </si>
   <si>
@@ -311,9 +236,6 @@
     <t>123d</t>
   </si>
   <si>
-    <t>Sin usar</t>
-  </si>
-  <si>
     <t>David Andrés Valencia</t>
   </si>
   <si>
@@ -338,9 +260,6 @@
     <t>sdaf234</t>
   </si>
   <si>
-    <t>Activo</t>
-  </si>
-  <si>
     <t>Hora solicitud servicio</t>
   </si>
   <si>
@@ -350,44 +269,101 @@
     <t>Cliente solicitante</t>
   </si>
   <si>
-    <t>Ruta Peticion</t>
-  </si>
-  <si>
-    <t>parque</t>
-  </si>
-  <si>
     <t>puntos ruta</t>
   </si>
   <si>
-    <t>Puntos ruta</t>
-  </si>
-  <si>
-    <t>puntos clave</t>
-  </si>
-  <si>
     <t>codigo ruta</t>
   </si>
   <si>
-    <t>san nicolas, autolarte</t>
-  </si>
-  <si>
     <t>sgwgwg21</t>
   </si>
   <si>
-    <t>codigo Peticion ruta</t>
-  </si>
-  <si>
-    <t>aceptan las peticiones</t>
-  </si>
-  <si>
-    <t>muestran las peticiones</t>
+    <t>N_Matricula</t>
+  </si>
+  <si>
+    <t>Propietario Apellido(S) Y Nombres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan Manuel Sanchez </t>
+  </si>
+  <si>
+    <t>Capacidad</t>
+  </si>
+  <si>
+    <t>OrgDeTransitoExpedidor</t>
+  </si>
+  <si>
+    <t>Secretaria Movilidad Rionegro</t>
+  </si>
+  <si>
+    <t>CategoriasAutorizadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Categorias Autorizadas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Categoria </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vigencia </t>
+  </si>
+  <si>
+    <t>UUID</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>10-09-2027</t>
+  </si>
+  <si>
+    <t>Vehiculo Asignado</t>
+  </si>
+  <si>
+    <t>detalle ruta</t>
+  </si>
+  <si>
+    <t>coductor</t>
+  </si>
+  <si>
+    <t>estado</t>
+  </si>
+  <si>
+    <t>coductorVehiculo</t>
+  </si>
+  <si>
+    <t>Punto interes</t>
+  </si>
+  <si>
+    <t>CiudadPuntoInteres</t>
+  </si>
+  <si>
+    <t>Rionegro</t>
+  </si>
+  <si>
+    <t>Inicion peticion ruta</t>
+  </si>
+  <si>
+    <t>Destino peticion ruta</t>
+  </si>
+  <si>
+    <t>San nicolas</t>
+  </si>
+  <si>
+    <t>Estado peticion ruta</t>
+  </si>
+  <si>
+    <t>Estado de ruta</t>
+  </si>
+  <si>
+    <t>punto clave</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,21 +396,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -467,12 +452,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -485,12 +464,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFB4C6E7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -542,11 +539,133 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -555,17 +674,17 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -580,10 +699,8 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -592,99 +709,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -705,17 +730,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -752,92 +766,96 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="20" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="21" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1155,7 +1173,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3C6EED-26A6-4A32-9400-4103C25EDF3D}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1217,7 +1237,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -1225,7 +1245,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -1271,221 +1291,108 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE51FD9-3A82-E749-8688-196D96D10B6C}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:F16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="44"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="H3" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="14" t="s">
+      <c r="I3" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="40">
+        <v>67867</v>
+      </c>
+      <c r="B4" s="41">
+        <v>0.87430555555555556</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="40" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
-        <v>67867</v>
-      </c>
-      <c r="B4" s="20">
-        <v>0.87430555555555556</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="I4" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="F7" s="54" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
-        <v>67867</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="55" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="47"/>
-      <c r="F11" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="51" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="49"/>
-      <c r="F12" s="11">
-        <v>2</v>
-      </c>
-      <c r="G12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="53" t="s">
-        <v>104</v>
-      </c>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D17" s="52"/>
-    </row>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
+  <mergeCells count="1">
+    <mergeCell ref="A2:I2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objeto de dominio'!A1" display="Volver a inicio" xr:uid="{92ADF4B4-2E59-FB48-B6B3-A7E9614BC0B4}"/>
-    <hyperlink ref="E3" location="Conductor!A11" display="Conductor!A11" xr:uid="{EF3889C2-B72D-2346-ADB7-9163254EB1F2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1494,60 +1401,56 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A596026E-0EDB-490F-832C-A3F37D6245AF}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="45"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="28" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A2:C2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objeto de dominio'!A1" display="Volver a inicio" xr:uid="{EE93FEEE-A581-420A-8793-016364211E30}"/>
@@ -1558,10 +1461,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA6EAF4-4E69-4136-9841-92939C37AE9C}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1569,72 +1472,64 @@
     <col min="1" max="1" width="39.7109375" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="14" t="s">
+      <c r="C3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" s="11">
+      <c r="B4" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="19">
         <v>1000896432</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objeto de dominio'!A1" display="Volver a inicio" xr:uid="{B7D0E4A6-6AB9-4222-85DE-8F5C8EAB3607}"/>
-    <hyperlink ref="E4" r:id="rId1" xr:uid="{A0338B58-6C16-422D-A919-5EE15F7680CE}"/>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{A0338B58-6C16-422D-A919-5EE15F7680CE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1642,10 +1537,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B71A918-4F48-4BE7-A683-4BCD3B1173E3}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView zoomScale="91" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1655,74 +1550,82 @@
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="32"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="C3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="11">
+      <c r="C4" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="19">
         <v>19032838029</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="19">
         <v>1234242</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>68</v>
+      <c r="G4" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A2:H2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objeto de dominio'!A1" display="Volver a inicio" xr:uid="{748847A3-3FD3-41CA-888F-1C2F4E82BF16}"/>
@@ -1733,10 +1636,67 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A529958A-59DD-7145-A7A2-26BDF24D8BC7}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Objeto de dominio'!A1" display="Volver a inicio" xr:uid="{1440A038-9C9E-4536-BE68-67374A2A921F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2AE89C0-E7CC-4181-97EE-C324EAEBD42F}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1746,45 +1706,45 @@
     <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="35"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="B3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15">
         <v>2</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="19">
         <v>2</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>40</v>
+      <c r="C4" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1798,11 +1758,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B648B0-E735-49D2-9CD2-7AD28A34FBD9}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1811,73 +1773,82 @@
     <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="11">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="19">
         <v>2007</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>44</v>
+      <c r="F4" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="19">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A2:H2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objeto de dominio'!A1" display="Volver a inicio" xr:uid="{EA95A33C-E701-4372-BAB1-88F2CBA0F07B}"/>
@@ -1886,185 +1857,73 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45424989-1726-45C3-AF45-F3B6820D374F}">
-  <dimension ref="A1:F9"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BB001C2-15FA-4C41-ADAF-19535EA0F727}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A2" sqref="A2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="49"/>
-      <c r="F4" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="18">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="48"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="54">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D9" s="18">
+      <c r="C4" s="54">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E9" s="19">
-        <v>44806</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A7:E7"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Objeto de dominio'!A1" display="Volver a inicio" xr:uid="{5B7C13FC-818A-4FB7-BE5D-58B667454080}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BB001C2-15FA-4C41-ADAF-19535EA0F727}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="11">
-        <v>3</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>12</v>
+      <c r="D4" s="55">
+        <v>44862</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objeto de dominio'!A1" display="Volver a inicio" xr:uid="{B7722B6C-CC9D-AB4C-BCF1-8894772E0B7D}"/>
@@ -2074,122 +1933,184 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E4AF330-8628-4EAA-A7F5-848BD5314080}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED0DDF5B-7215-4C20-BA06-22F4B648B9F8}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
+      <c r="A1" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="52"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>82</v>
+      <c r="A3" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>83</v>
-      </c>
+      <c r="A4" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:D2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Objeto de dominio'!A1" display="Volver a inicio" xr:uid="{CCBCABDC-6634-4D69-9A70-4729D6420F2E}"/>
+    <hyperlink ref="A1" location="'Objeto de dominio'!A1" display="Volver a inicio" xr:uid="{959BE818-E15B-40AE-8ADE-015363156DDE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="B4:C4" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9AF28A-E5A3-514E-9E9C-EA2976A2D6D2}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45424989-1726-45C3-AF45-F3B6820D374F}">
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26">
-        <v>8769</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>59</v>
-      </c>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="48"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="45"/>
+      <c r="D4" s="40">
+        <v>2</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:B2"/>
+  <mergeCells count="3">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A2:G2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Objeto de dominio'!A1" display="Volver a inicio" xr:uid="{B5741C13-FF5B-E240-90CB-B32C91E71063}"/>
+    <hyperlink ref="A1" location="'Objeto de dominio'!A1" display="Volver a inicio" xr:uid="{5B7C13FC-818A-4FB7-BE5D-58B667454080}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ExtraClase/Modelado de Dominio/Modelo enriquesido/Datos simulados.xlsx
+++ b/ExtraClase/Modelado de Dominio/Modelo enriquesido/Datos simulados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Federico\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Federico\U\Doo\RepositorioDOO\ExtraClase\Modelado de Dominio\Modelo enriquesido\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD046EA-D13B-4E7B-9BF4-4006A1F99DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16531BE-C059-4E75-91D5-4D5F0775906E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="10" xr2:uid="{3FB1C1AF-C937-424C-8B70-E29AA864A804}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="11" xr2:uid="{3FB1C1AF-C937-424C-8B70-E29AA864A804}"/>
   </bookViews>
   <sheets>
     <sheet name="Objeto de dominio" sheetId="2" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="Ruta" sheetId="7" r:id="rId9"/>
     <sheet name="Peticion Ruta" sheetId="8" r:id="rId10"/>
     <sheet name="Coductor Vehiculo" sheetId="11" r:id="rId11"/>
+    <sheet name="Estado Ruta" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="111">
   <si>
     <t>Objeto de dominio</t>
   </si>
@@ -357,13 +358,34 @@
   </si>
   <si>
     <t>punto clave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estado </t>
+  </si>
+  <si>
+    <t>puntos interes</t>
+  </si>
+  <si>
+    <t>23fsdf34-23rwf</t>
+  </si>
+  <si>
+    <t>En espera</t>
+  </si>
+  <si>
+    <t>Ruta iniciada</t>
+  </si>
+  <si>
+    <t>Se cancelo ruta</t>
+  </si>
+  <si>
+    <t>No se a iniciado la ruta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,6 +436,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -737,7 +767,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -786,76 +816,77 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1173,9 +1204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3C6EED-26A6-4A32-9400-4103C25EDF3D}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1316,17 +1345,17 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="44"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="53"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -1358,31 +1387,31 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="40">
+      <c r="A4" s="29">
         <v>67867</v>
       </c>
-      <c r="B4" s="41">
+      <c r="B4" s="30">
         <v>0.87430555555555556</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="40" t="s">
+      <c r="H4" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="29" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1403,9 +1432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A596026E-0EDB-490F-832C-A3F37D6245AF}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1420,11 +1447,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1456,6 +1483,70 @@
     <hyperlink ref="A1" location="'Objeto de dominio'!A1" display="Volver a inicio" xr:uid="{EE93FEEE-A581-420A-8793-016364211E30}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD119DC-C072-4B64-9705-5738F61B7EB8}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Objeto de dominio'!A1" display="Volver a inicio" xr:uid="{20FD85B6-29A9-4A05-9B99-F38428323674}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1481,13 +1572,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
@@ -1560,16 +1651,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="32"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
@@ -1712,12 +1803,12 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="35"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
@@ -1783,16 +1874,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
@@ -1862,7 +1953,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E3"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1879,13 +1970,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="45"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
@@ -1905,19 +1996,19 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="54">
+      <c r="B4" s="33">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C4" s="54">
+      <c r="C4" s="33">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D4" s="55">
+      <c r="D4" s="34">
         <v>44862</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="29" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1954,21 +2045,21 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="52"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="48"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="32" t="s">
         <v>75</v>
       </c>
       <c r="D3" s="11" t="s">
@@ -1976,21 +2067,21 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="29" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C5" s="39"/>
+      <c r="C5" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2009,7 +2100,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2017,6 +2108,7 @@
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2026,24 +2118,24 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="48"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="45"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="36"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="12" t="s">
         <v>47</v>
       </c>
@@ -2051,31 +2143,31 @@
         <v>91</v>
       </c>
       <c r="F3" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="50"/>
+      <c r="D4" s="29">
+        <v>2</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="40">
-        <v>2</v>
-      </c>
-      <c r="E4" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" s="40" t="s">
-        <v>102</v>
+      <c r="G4" s="29" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">

--- a/ExtraClase/Modelado de Dominio/Modelo enriquesido/Datos simulados.xlsx
+++ b/ExtraClase/Modelado de Dominio/Modelo enriquesido/Datos simulados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Federico\U\Doo\RepositorioDOO\ExtraClase\Modelado de Dominio\Modelo enriquesido\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16531BE-C059-4E75-91D5-4D5F0775906E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA130EC-845A-4DC4-AB2B-19197A282441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="11" xr2:uid="{3FB1C1AF-C937-424C-8B70-E29AA864A804}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{3FB1C1AF-C937-424C-8B70-E29AA864A804}"/>
   </bookViews>
   <sheets>
     <sheet name="Objeto de dominio" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="111">
   <si>
     <t>Objeto de dominio</t>
   </si>
@@ -273,9 +273,6 @@
     <t>puntos ruta</t>
   </si>
   <si>
-    <t>codigo ruta</t>
-  </si>
-  <si>
     <t>sgwgwg21</t>
   </si>
   <si>
@@ -327,9 +324,6 @@
     <t>coductor</t>
   </si>
   <si>
-    <t>estado</t>
-  </si>
-  <si>
     <t>coductorVehiculo</t>
   </si>
   <si>
@@ -379,13 +373,19 @@
   </si>
   <si>
     <t>No se a iniciado la ruta</t>
+  </si>
+  <si>
+    <t>EstadoRuta</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,16 +440,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -516,6 +508,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="18">
     <border>
@@ -767,7 +765,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -816,7 +814,6 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -886,7 +883,15 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1320,10 +1325,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE51FD9-3A82-E749-8688-196D96D10B6C}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1332,32 +1337,30 @@
     <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="52"/>
-      <c r="I2" s="53"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>21</v>
       </c>
@@ -1371,54 +1374,48 @@
         <v>73</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F3" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="28">
+        <v>67867</v>
+      </c>
+      <c r="B4" s="29">
+        <v>0.87430555555555556</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="F4" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H4" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="I3" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="29">
-        <v>67867</v>
-      </c>
-      <c r="B4" s="30">
-        <v>0.87430555555555556</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A2:H2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objeto de dominio'!A1" display="Volver a inicio" xr:uid="{92ADF4B4-2E59-FB48-B6B3-A7E9614BC0B4}"/>
@@ -1447,11 +1444,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1461,7 +1458,7 @@
         <v>61</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1488,60 +1485,65 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD119DC-C072-4B64-9705-5738F61B7EB8}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="57"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" t="b">
+      <c r="B3" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="D3" t="b">
+      <c r="C3" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D3" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" s="56" t="s">
+      <c r="D4" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E4" t="s">
-        <v>110</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:D2"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objeto de dominio'!A1" display="Volver a inicio" xr:uid="{20FD85B6-29A9-4A05-9B99-F38428323674}"/>
   </hyperlinks>
@@ -1555,7 +1557,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1572,13 +1574,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
@@ -1628,10 +1630,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B71A918-4F48-4BE7-A683-4BCD3B1173E3}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView zoomScale="91" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1651,16 +1653,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="38"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
@@ -1682,10 +1684,10 @@
         <v>50</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1708,10 +1710,15 @@
         <v>1234242</v>
       </c>
       <c r="G4" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="H4" s="16" t="s">
-        <v>83</v>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1746,7 +1753,7 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="25"/>
@@ -1756,21 +1763,21 @@
         <v>69</v>
       </c>
       <c r="B3" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>85</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="C4" s="26" t="s">
         <v>88</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1803,12 +1810,12 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="41"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
@@ -1853,8 +1860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B648B0-E735-49D2-9CD2-7AD28A34FBD9}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1874,23 +1881,23 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>52</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>35</v>
@@ -1905,10 +1912,10 @@
         <v>55</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1931,7 +1938,7 @@
         <v>38</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H4" s="19">
         <v>5</v>
@@ -1950,10 +1957,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BB001C2-15FA-4C41-ADAF-19535EA0F727}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1964,21 +1971,20 @@
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="45"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>69</v>
       </c>
@@ -1991,30 +1997,24 @@
       <c r="D3" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="32">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="32">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="33">
         <v>44862</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A2:D2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objeto de dominio'!A1" display="Volver a inicio" xr:uid="{B7722B6C-CC9D-AB4C-BCF1-8894772E0B7D}"/>
@@ -2025,67 +2025,56 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED0DDF5B-7215-4C20-BA06-22F4B648B9F8}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="47"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C5" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A2:C2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objeto de dominio'!A1" display="Volver a inicio" xr:uid="{959BE818-E15B-40AE-8ADE-015363156DDE}"/>
@@ -2100,7 +2089,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2118,56 +2107,56 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="45"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="44"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="49"/>
+      <c r="C3" s="48"/>
       <c r="D3" s="12" t="s">
         <v>47</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G3" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="49"/>
+      <c r="D4" s="28">
+        <v>2</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="28" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="29">
-        <v>2</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">

--- a/ExtraClase/Modelado de Dominio/Modelo enriquesido/Datos simulados.xlsx
+++ b/ExtraClase/Modelado de Dominio/Modelo enriquesido/Datos simulados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Federico\U\Doo\RepositorioDOO\ExtraClase\Modelado de Dominio\Modelo enriquesido\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA130EC-845A-4DC4-AB2B-19197A282441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD871FE-C6A9-44E5-B3F7-32E4C80156EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{3FB1C1AF-C937-424C-8B70-E29AA864A804}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="6" xr2:uid="{3FB1C1AF-C937-424C-8B70-E29AA864A804}"/>
   </bookViews>
   <sheets>
     <sheet name="Objeto de dominio" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="104">
   <si>
     <t>Objeto de dominio</t>
   </si>
@@ -153,24 +153,9 @@
     <t xml:space="preserve">Federico </t>
   </si>
   <si>
-    <t>Marca</t>
-  </si>
-  <si>
-    <t>Linea</t>
-  </si>
-  <si>
-    <t>Modelo</t>
-  </si>
-  <si>
     <t>MNO530</t>
   </si>
   <si>
-    <t>Renault</t>
-  </si>
-  <si>
-    <t>Symbol</t>
-  </si>
-  <si>
     <t>N.licencia</t>
   </si>
   <si>
@@ -319,12 +304,6 @@
   </si>
   <si>
     <t>detalle ruta</t>
-  </si>
-  <si>
-    <t>coductor</t>
-  </si>
-  <si>
-    <t>coductorVehiculo</t>
   </si>
   <si>
     <t>Punto interes</t>
@@ -385,7 +364,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,6 +415,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -765,7 +752,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -850,24 +837,24 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -890,6 +877,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1271,7 +1262,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -1279,7 +1270,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -1325,10 +1316,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE51FD9-3A82-E749-8688-196D96D10B6C}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1337,56 +1328,51 @@
     <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B2" s="51"/>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
       <c r="E2" s="51"/>
       <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="52"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G2" s="52"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="28">
         <v>67867</v>
       </c>
@@ -1394,28 +1380,25 @@
         <v>0.87430555555555556</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A2:G2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objeto de dominio'!A1" display="Volver a inicio" xr:uid="{92ADF4B4-2E59-FB48-B6B3-A7E9614BC0B4}"/>
@@ -1452,18 +1435,18 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>4</v>
@@ -1506,7 +1489,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B2" s="56"/>
       <c r="C2" s="56"/>
@@ -1514,7 +1497,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B3" s="12" t="b">
         <v>1</v>
@@ -1523,21 +1506,21 @@
         <v>0</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1596,21 +1579,21 @@
         <v>30</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E4" s="19">
         <v>1000896432</v>
@@ -1678,21 +1661,21 @@
         <v>26</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>23</v>
@@ -1710,15 +1693,15 @@
         <v>1234242</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1753,31 +1736,31 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="25"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1828,7 +1811,7 @@
         <v>32</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1858,29 +1841,26 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B648B0-E735-49D2-9CD2-7AD28A34FBD9}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>8</v>
       </c>
@@ -1888,70 +1868,53 @@
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
       <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>39</v>
-      </c>
       <c r="D4" s="19" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="E4" s="19">
-        <v>2007</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="H4" s="19">
         <v>5</v>
       </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objeto de dominio'!A1" display="Volver a inicio" xr:uid="{EA95A33C-E701-4372-BAB1-88F2CBA0F07B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1959,8 +1922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BB001C2-15FA-4C41-ADAF-19535EA0F727}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1977,30 +1940,30 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
+      <c r="A2" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B4" s="32">
         <v>0.54166666666666663</v>
@@ -2044,32 +2007,32 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="47"/>
+      <c r="A2" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="46"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2115,48 +2078,48 @@
       <c r="D2" s="43"/>
       <c r="E2" s="43"/>
       <c r="F2" s="43"/>
-      <c r="G2" s="44"/>
+      <c r="G2" s="49"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="48"/>
+      <c r="C3" s="47"/>
       <c r="D3" s="12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="48"/>
       <c r="D4" s="28">
         <v>2</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">

--- a/ExtraClase/Modelado de Dominio/Modelo enriquesido/Datos simulados.xlsx
+++ b/ExtraClase/Modelado de Dominio/Modelo enriquesido/Datos simulados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Federico\U\Doo\RepositorioDOO\ExtraClase\Modelado de Dominio\Modelo enriquesido\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD871FE-C6A9-44E5-B3F7-32E4C80156EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FB05E5-8244-44B9-B084-0BDD8E8FC178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="6" xr2:uid="{3FB1C1AF-C937-424C-8B70-E29AA864A804}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="7" xr2:uid="{3FB1C1AF-C937-424C-8B70-E29AA864A804}"/>
   </bookViews>
   <sheets>
     <sheet name="Objeto de dominio" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,6 @@
     <sheet name="Ruta" sheetId="7" r:id="rId9"/>
     <sheet name="Peticion Ruta" sheetId="8" r:id="rId10"/>
     <sheet name="Coductor Vehiculo" sheetId="11" r:id="rId11"/>
-    <sheet name="Estado Ruta" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="96">
   <si>
     <t>Objeto de dominio</t>
   </si>
@@ -273,12 +272,6 @@
     <t>Capacidad</t>
   </si>
   <si>
-    <t>OrgDeTransitoExpedidor</t>
-  </si>
-  <si>
-    <t>Secretaria Movilidad Rionegro</t>
-  </si>
-  <si>
     <t>CategoriasAutorizadas</t>
   </si>
   <si>
@@ -327,9 +320,6 @@
     <t>Estado peticion ruta</t>
   </si>
   <si>
-    <t>Estado de ruta</t>
-  </si>
-  <si>
     <t>punto clave</t>
   </si>
   <si>
@@ -339,22 +329,7 @@
     <t>puntos interes</t>
   </si>
   <si>
-    <t>23fsdf34-23rwf</t>
-  </si>
-  <si>
     <t>En espera</t>
-  </si>
-  <si>
-    <t>Ruta iniciada</t>
-  </si>
-  <si>
-    <t>Se cancelo ruta</t>
-  </si>
-  <si>
-    <t>No se a iniciado la ruta</t>
-  </si>
-  <si>
-    <t>EstadoRuta</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -428,7 +403,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -495,12 +470,6 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="18">
     <border>
@@ -752,7 +721,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -807,6 +776,7 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -831,27 +801,30 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -868,19 +841,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1339,15 +1299,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="52"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="54"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -1363,10 +1323,10 @@
         <v>68</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>39</v>
@@ -1389,10 +1349,10 @@
         <v>51</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1412,7 +1372,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A596026E-0EDB-490F-832C-A3F37D6245AF}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1427,11 +1389,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1441,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1463,75 +1425,6 @@
     <hyperlink ref="A1" location="'Objeto de dominio'!A1" display="Volver a inicio" xr:uid="{EE93FEEE-A581-420A-8793-016364211E30}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD119DC-C072-4B64-9705-5738F61B7EB8}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="57"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:D2"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Objeto de dominio'!A1" display="Volver a inicio" xr:uid="{20FD85B6-29A9-4A05-9B99-F38428323674}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1557,13 +1450,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
@@ -1613,10 +1506,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B71A918-4F48-4BE7-A683-4BCD3B1173E3}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView zoomScale="91" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1626,28 +1519,26 @@
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="38"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="39"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>21</v>
       </c>
@@ -1666,14 +1557,11 @@
       <c r="F3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="H3" s="22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>62</v>
       </c>
@@ -1692,21 +1580,18 @@
       <c r="F4" s="19">
         <v>1234242</v>
       </c>
-      <c r="G4" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G4" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A2:G2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objeto de dominio'!A1" display="Volver a inicio" xr:uid="{748847A3-3FD3-41CA-888F-1C2F4E82BF16}"/>
@@ -1721,7 +1606,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1736,7 +1621,7 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="25"/>
@@ -1746,21 +1631,21 @@
         <v>64</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="26" t="s">
         <v>81</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1776,7 +1661,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1793,12 +1678,12 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
@@ -1844,7 +1729,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1861,13 +1746,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
@@ -1904,7 +1789,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="58"/>
+      <c r="B6" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1922,8 +1807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BB001C2-15FA-4C41-ADAF-19535EA0F727}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1940,12 +1825,12 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
@@ -1990,7 +1875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED0DDF5B-7215-4C20-BA06-22F4B648B9F8}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -2008,7 +1893,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B2" s="45"/>
       <c r="C2" s="46"/>
@@ -2018,10 +1903,10 @@
         <v>55</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2029,10 +1914,10 @@
         <v>70</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2052,7 +1937,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2070,15 +1955,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="49"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="51"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
@@ -2092,13 +1977,13 @@
         <v>42</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2113,13 +1998,13 @@
         <v>2</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F4" s="28" t="s">
         <v>69</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">

--- a/ExtraClase/Modelado de Dominio/Modelo enriquesido/Datos simulados.xlsx
+++ b/ExtraClase/Modelado de Dominio/Modelo enriquesido/Datos simulados.xlsx
@@ -8,22 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Federico\U\Doo\RepositorioDOO\ExtraClase\Modelado de Dominio\Modelo enriquesido\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FB05E5-8244-44B9-B084-0BDD8E8FC178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046893CD-C273-4D3A-A125-7B7E1ED04136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="7" xr2:uid="{3FB1C1AF-C937-424C-8B70-E29AA864A804}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3FB1C1AF-C937-424C-8B70-E29AA864A804}"/>
   </bookViews>
   <sheets>
     <sheet name="Objeto de dominio" sheetId="2" r:id="rId1"/>
     <sheet name="Cliente" sheetId="4" r:id="rId2"/>
     <sheet name="Conductor" sheetId="3" r:id="rId3"/>
-    <sheet name="Categorias" sheetId="12" r:id="rId4"/>
+    <sheet name="Categorias Autorizadas" sheetId="12" r:id="rId4"/>
     <sheet name="Calificación" sheetId="5" r:id="rId5"/>
     <sheet name="Vehiculo" sheetId="6" r:id="rId6"/>
-    <sheet name="Detalle Ruta" sheetId="10" r:id="rId7"/>
-    <sheet name="punto interes" sheetId="13" r:id="rId8"/>
+    <sheet name="punto interes" sheetId="13" r:id="rId7"/>
+    <sheet name="Detalle mi ruta" sheetId="21" r:id="rId8"/>
     <sheet name="Ruta" sheetId="7" r:id="rId9"/>
     <sheet name="Peticion Ruta" sheetId="8" r:id="rId10"/>
     <sheet name="Coductor Vehiculo" sheetId="11" r:id="rId11"/>
+    <sheet name="Pais" sheetId="14" r:id="rId12"/>
+    <sheet name="Departamento" sheetId="15" r:id="rId13"/>
+    <sheet name="Ciudad" sheetId="16" r:id="rId14"/>
+    <sheet name="DePuInRu" sheetId="17" r:id="rId15"/>
+    <sheet name="PuntoInteres" sheetId="18" r:id="rId16"/>
+    <sheet name="Mi Ruta" sheetId="19" r:id="rId17"/>
+    <sheet name="Hoja7" sheetId="20" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="126">
   <si>
     <t>Objeto de dominio</t>
   </si>
@@ -56,9 +63,6 @@
     <t>Clientes</t>
   </si>
   <si>
-    <t>Objeto que representa a un tipo de usuario, el cual es quien solicita el servicio de carro compartido. Por ejmeplo es quien contacta con un conductor para llegar a un destino en común.</t>
-  </si>
-  <si>
     <t>Conductor</t>
   </si>
   <si>
@@ -77,24 +81,12 @@
     <t>Objeto que se encarga de identificar al vehiculo del conductor y a su vez el dueño</t>
   </si>
   <si>
-    <t>Detalle Ruta</t>
-  </si>
-  <si>
-    <t>Objeto que se encarga de guardar todo el recorrido de la ruta que hace el conductor en su vehiculo</t>
-  </si>
-  <si>
     <t>Ruta</t>
   </si>
   <si>
-    <t>Ubicación</t>
-  </si>
-  <si>
     <t>Tipo vehiculo</t>
   </si>
   <si>
-    <t>Obejeto que descripbe con exactitud que tipo de medio trasporte se va utilizar, como lo puede ser que sea tipo motocicleta o tipo automovil.</t>
-  </si>
-  <si>
     <t>Peticion ruta</t>
   </si>
   <si>
@@ -143,12 +135,6 @@
     <t>calificacion</t>
   </si>
   <si>
-    <t xml:space="preserve">Comentario </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Es muy grosero </t>
-  </si>
-  <si>
     <t xml:space="preserve">Federico </t>
   </si>
   <si>
@@ -179,9 +165,6 @@
     <t>Peticion Ruta</t>
   </si>
   <si>
-    <t>Objeto que se encarga de almacenar la información que pertenece a una ruta, se generada a partir de la creación de un conductor, con la cual anuncia cual es el origen y cual es su destino, cuantos cupos tiene y otros datos como fecha y hora.</t>
-  </si>
-  <si>
     <t>Dni</t>
   </si>
   <si>
@@ -203,15 +186,6 @@
     <t>Uco</t>
   </si>
   <si>
-    <t>HoraCreación</t>
-  </si>
-  <si>
-    <t>HoraFinalización</t>
-  </si>
-  <si>
-    <t>Atributo que nos representa en que lugar se encuentra un usuario al momento de tomar una ruta y se genera un registro de la ubicación en tiempo real de la ubicación geografica del usuario.</t>
-  </si>
-  <si>
     <t>codigo</t>
   </si>
   <si>
@@ -236,15 +210,9 @@
     <t>DF256F92JS6287SHJS370382SP9825394381</t>
   </si>
   <si>
-    <t>Detalle ruta</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
-    <t>sdaf234</t>
-  </si>
-  <si>
     <t>Hora solicitud servicio</t>
   </si>
   <si>
@@ -254,9 +222,6 @@
     <t>Cliente solicitante</t>
   </si>
   <si>
-    <t>puntos ruta</t>
-  </si>
-  <si>
     <t>sgwgwg21</t>
   </si>
   <si>
@@ -296,9 +261,6 @@
     <t>Vehiculo Asignado</t>
   </si>
   <si>
-    <t>detalle ruta</t>
-  </si>
-  <si>
     <t>Punto interes</t>
   </si>
   <si>
@@ -323,16 +285,151 @@
     <t>punto clave</t>
   </si>
   <si>
-    <t xml:space="preserve">Estado </t>
-  </si>
-  <si>
-    <t>puntos interes</t>
-  </si>
-  <si>
-    <t>En espera</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Numer</t>
+  </si>
+  <si>
+    <t>Objeto que representa a un tipo de usuario, el cual es quien solicita el servicio de carro compartido. Por ejemplo es quien contacta con un conductor para llegar a un destino en común.</t>
+  </si>
+  <si>
+    <t>Objeto que nos representa cuales son las rutas que se da en un viaje, como la puede hacer, por donde pasa, quienes estuvieron en el viaje y hasta donde llegaron, se busca es guardar datos por seguridad de los usuarios.</t>
+  </si>
+  <si>
+    <t>Objeto que describe con exactitud que tipo de medio trasporte se va utilizar, como lo puede ser que sea tipo motocicleta o tipo automovil.</t>
+  </si>
+  <si>
+    <t>Categoria autorizada</t>
+  </si>
+  <si>
+    <t>Objeto que tiene la funcion de especificar las categorias de licencias de conduccion que se pueden usar en la aplicación.</t>
+  </si>
+  <si>
+    <t>Mi ruta</t>
+  </si>
+  <si>
+    <t>Objeto que tiene la funcion de poder reutlizar rutas que son creadas con anticipación de forma que no se debe crear todo desde cero.</t>
+  </si>
+  <si>
+    <t>Detalle mi ruta</t>
+  </si>
+  <si>
+    <t>Objeto que tiene la funcion de especificar cuales son los detalles que se añadieron en una ruta como puede ser fechas o tiempo.</t>
+  </si>
+  <si>
+    <t>Detalle puntos interes ruta</t>
+  </si>
+  <si>
+    <t>Objeto que tiene la funcion de especificarLos puntos de interes que han sido usado por un conductor de forma que se pueden reutilizar</t>
+  </si>
+  <si>
+    <t>Puntos interes</t>
+  </si>
+  <si>
+    <t>Objeto que tiene la funcion de especificar los diferentes puntos de interes que pueden haber en una ciudad.</t>
+  </si>
+  <si>
+    <t>Ciudad</t>
+  </si>
+  <si>
+    <t>Objeto que tiene la funcion de especificar que ciudades estan registradas en la apliacion</t>
+  </si>
+  <si>
+    <t>Departamento</t>
+  </si>
+  <si>
+    <t>Objeto que tiene la funcion de especificar los departamentos que se registraron con sus respectivas ciudades.</t>
+  </si>
+  <si>
+    <t>Pais</t>
+  </si>
+  <si>
+    <t>Objeto que tiene la funcion de especificar los diferentes paises registrados en la aplicación.</t>
+  </si>
+  <si>
+    <t>2342fsd-234fs</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>4235fdsf-235fs</t>
+  </si>
+  <si>
+    <t>Antioquia</t>
+  </si>
+  <si>
+    <t>PaisId</t>
+  </si>
+  <si>
+    <t>2423nsfd-324vxvcx</t>
+  </si>
+  <si>
+    <t>DepartamentoId</t>
+  </si>
+  <si>
+    <t>2234k jn-4234f</t>
+  </si>
+  <si>
+    <t>san nicolas-porvenir</t>
+  </si>
+  <si>
+    <t>Puntos Interes</t>
+  </si>
+  <si>
+    <t>safsdf323-asfw3</t>
+  </si>
+  <si>
+    <t>Punto Interes</t>
+  </si>
+  <si>
+    <t>CiudadId</t>
+  </si>
+  <si>
+    <t>Detalle Punto Interes Ruta</t>
+  </si>
+  <si>
+    <t>sf234s-234fss</t>
+  </si>
+  <si>
+    <t>EstadoMIRuta</t>
+  </si>
+  <si>
+    <t>Sin comenzar</t>
+  </si>
+  <si>
+    <t>ConductorVehiculo</t>
+  </si>
+  <si>
+    <t>Punto Inicio</t>
+  </si>
+  <si>
+    <t>DetallePuntoInteresRuta</t>
+  </si>
+  <si>
+    <t>Punto Fin</t>
+  </si>
+  <si>
+    <t>38925jn34ktn</t>
+  </si>
+  <si>
+    <t>Hora creacion</t>
+  </si>
+  <si>
+    <t>Hora finalizacion</t>
+  </si>
+  <si>
+    <t>Hora inicio</t>
+  </si>
+  <si>
+    <t>Mi Ruta</t>
+  </si>
+  <si>
+    <t>MiRuta</t>
+  </si>
+  <si>
+    <t>Detalle mi Ruta</t>
   </si>
 </sst>
 </file>
@@ -403,7 +500,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -470,6 +567,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="18">
     <border>
@@ -721,7 +824,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -740,15 +843,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -774,8 +868,6 @@
     <xf numFmtId="21" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -801,9 +893,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -843,6 +932,29 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1158,9 +1270,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3C6EED-26A6-4A32-9400-4103C25EDF3D}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1178,97 +1292,143 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="51" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="52" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="53" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="53" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="B6" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="54" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>16</v>
+    </row>
+    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="54" t="s">
+        <v>82</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>18</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="54" t="s">
+        <v>84</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>19</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" location="Calificación!A1" display="Calificación" xr:uid="{76F172AD-C900-4237-8A4C-A0C9053B3744}"/>
-    <hyperlink ref="A5" location="Vehiculo!A1" display="Vehiculo" xr:uid="{38101790-A0F8-4FCD-BB21-FD1824276ADE}"/>
-    <hyperlink ref="A6" location="'Detalle ruta'!A1" display="Detalle Ruta" xr:uid="{885D2DF5-4648-4294-9F7B-36886393599D}"/>
-    <hyperlink ref="A2" location="Cliente!A2" display="Clientes" xr:uid="{EEE10F48-8102-4521-A3DF-AE503F564DF5}"/>
-    <hyperlink ref="A3" location="Conductor!A2" display="Conductor" xr:uid="{F6604A19-6EB3-4768-9934-7839331372B4}"/>
-    <hyperlink ref="A7" location="Ruta!A1" display="Ruta" xr:uid="{5CC14CB7-879C-4E4D-9A6F-483A5D64202B}"/>
-    <hyperlink ref="A8" location="Ubicación!A1" display="Ubicación" xr:uid="{957E8B72-C572-471C-A512-FC2D661867EB}"/>
-    <hyperlink ref="A9" location="'tipo de vehiculo'!A1" display="Tipo vehiculo" xr:uid="{F8077BBD-4E6E-417B-B6B8-EACBDCFE5B21}"/>
-    <hyperlink ref="A10" location="'Peticion ruta'!A1" display="Peticion ruta" xr:uid="{E60A4CB8-480B-4463-BFE5-15C71B2EE50A}"/>
-    <hyperlink ref="A11" location="'Coductor Vehiculo'!A1" display="Conductor Vehiculo" xr:uid="{168D3CCA-C061-439E-86DE-A51E02C812C3}"/>
+    <hyperlink ref="A4" location="Calificación!A1" display="Calificación" xr:uid="{22BCDD7D-752A-49F4-9044-282993304D07}"/>
+    <hyperlink ref="A5" location="Vehiculo!A1" display="Vehiculo" xr:uid="{69DF4638-FD60-4DB0-8A77-192185D23FDB}"/>
+    <hyperlink ref="A2" location="Cliente!A2" display="Clientes" xr:uid="{AE649666-2C76-4526-84C1-F716D6EA937B}"/>
+    <hyperlink ref="A3" location="Conductor!A2" display="Conductor" xr:uid="{48EA82F8-2F6B-4A9A-9F1F-8C6618E85B5F}"/>
+    <hyperlink ref="A6" location="Ruta!A1" display="Ruta" xr:uid="{D3AF2CA4-4FFA-4B2D-AF55-4505121B24D6}"/>
+    <hyperlink ref="A7" location="'Tipo Vehiculo'!A1" display="Tipo vehiculo" xr:uid="{3C602F17-EBBA-46FC-9A4D-6552F4EBB080}"/>
+    <hyperlink ref="A8" location="'Peticion ruta'!A1" display="Peticion ruta" xr:uid="{832209F1-D775-4147-9C97-291EBE9348E4}"/>
+    <hyperlink ref="A9" location="'Conductor Vehiculo'!A1" display="Conductor Vehiculo" xr:uid="{81A58F72-B31F-4DAE-8112-9E564F92E63B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1279,7 +1439,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1294,65 +1454,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>20</v>
+      <c r="A1" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="48"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="25">
+        <v>67867</v>
+      </c>
+      <c r="B4" s="26">
+        <v>0.87430555555555556</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="54"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="28">
-        <v>67867</v>
-      </c>
-      <c r="B4" s="29">
-        <v>0.87430555555555556</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>90</v>
+      <c r="F4" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1372,9 +1532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A596026E-0EDB-490F-832C-A3F37D6245AF}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1384,37 +1542,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>20</v>
+      <c r="A1" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
+      <c r="A2" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>82</v>
+      <c r="A3" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>8</v>
+      <c r="A4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1428,12 +1586,370 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2ABD410-E61D-4551-9FFB-E2E849D59BEF}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="57"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="58" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Objeto de dominio'!A1" display="Volver a inicio" xr:uid="{9B899434-C37A-4108-8190-C342B50B35E4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D8FE5A-0D78-4670-AD3C-E2128F703419}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Objeto de dominio'!A1" display="Volver a inicio" xr:uid="{88742E8C-8FAC-48CA-9000-649F0C2A4B80}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152635D2-7CC0-458A-AE8B-62A8ED41EA0D}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Objeto de dominio'!A1" display="Volver a inicio" xr:uid="{2BC45673-1B21-497D-BDCA-DFF522D73294}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E1DE7F4-2BA1-466B-9A1A-B0BC11BF616B}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="55"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Objeto de dominio'!A1" display="Volver a inicio" xr:uid="{34C6F39E-E174-41CB-ADED-F9D372E7ABC0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111C57A8-6940-4B97-BFA8-88DC0ED67315}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Objeto de dominio'!A1" display="Volver a inicio" xr:uid="{40662462-488D-4A75-BD70-48C5DE4E3D50}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2042F89-62AC-4004-B5BC-09CCA1E951EA}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:F2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Objeto de dominio'!A1" display="Volver a inicio" xr:uid="{5E16E8D6-F6C9-40A7-BB91-6D67E5462A69}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2ED54AD-D6E7-45CA-8470-98CC86A61806}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA6EAF4-4E69-4136-9841-92939C37AE9C}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1445,50 +1961,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>20</v>
+      <c r="A1" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
+      <c r="A2" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>45</v>
+      <c r="A3" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="19">
+      <c r="A4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="16">
         <v>1000896432</v>
       </c>
     </row>
@@ -1506,7 +2022,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B71A918-4F48-4BE7-A683-4BCD3B1173E3}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView zoomScale="91" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
@@ -1522,71 +2038,76 @@
     <col min="7" max="7" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="34"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="39"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="19">
+      <c r="E4" s="16">
         <v>19032838029</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="16">
         <v>1234242</v>
       </c>
-      <c r="G4" s="16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G4" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1606,7 +2127,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1615,37 +2136,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>20</v>
+      <c r="A1" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25"/>
+      <c r="A2" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>81</v>
+      <c r="A4" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1661,7 +2182,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1673,44 +2194,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>20</v>
+      <c r="A1" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
+      <c r="A2" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="37"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>46</v>
+      <c r="A3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15">
+      <c r="A4" s="12">
         <v>2</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="16">
         <v>2</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>34</v>
+      <c r="C4" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1741,55 +2262,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>20</v>
+      <c r="A1" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="A2" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>74</v>
+      <c r="A3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" s="19">
+      <c r="A4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="16">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="34"/>
+      <c r="B6" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1804,78 +2325,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BB001C2-15FA-4C41-ADAF-19535EA0F727}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="32">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="C4" s="32">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D4" s="33">
-        <v>44862</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:D2"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Objeto de dominio'!A1" display="Volver a inicio" xr:uid="{B7722B6C-CC9D-AB4C-BCF1-8894772E0B7D}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED0DDF5B-7215-4C20-BA06-22F4B648B9F8}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -1887,37 +2340,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>20</v>
+      <c r="A1" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="46"/>
+      <c r="A2" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="40"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>85</v>
+      <c r="A3" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>86</v>
+      <c r="A4" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1932,111 +2385,186 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AC41EF5-9B1B-41C4-AA18-7A6B3F5A3406}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="60">
+        <v>44876</v>
+      </c>
+      <c r="C4" s="61">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D4" s="61">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E4" s="61">
+        <v>0.3125</v>
+      </c>
+      <c r="F4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:F2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Objeto de dominio'!A1" display="Volver a inicio" xr:uid="{467D462A-6F4E-4D32-B4DB-AF292F91A20C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45424989-1726-45C3-AF45-F3B6820D374F}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>20</v>
+      <c r="A1" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="51"/>
+      <c r="A2" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="45"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>92</v>
-      </c>
+      <c r="A3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="41"/>
+      <c r="F3" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="42"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="28">
-        <v>2</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>94</v>
-      </c>
+      <c r="A4" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="G4" s="42"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="A2:G2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objeto de dominio'!A1" display="Volver a inicio" xr:uid="{5B7C13FC-818A-4FB7-BE5D-58B667454080}"/>
